--- a/Doc/Tim.xlsx
+++ b/Doc/Tim.xlsx
@@ -3,23 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya\STM32CubeIDE\workspace_1.8.0\LINK4_G070R_TEST_BOARD1\Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1EE14-D3E0-44B0-837D-F808C0BC599F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AB551DCD-0E30-473C-8A6B-E6A49F8EBE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{3BBC16BF-3852-4B14-B8FB-5FFEF6517710}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" tabRatio="779" xr2:uid="{3BBC16BF-3852-4B14-B8FB-5FFEF6517710}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fram" sheetId="4" r:id="rId1"/>
+    <sheet name="Basic Test" sheetId="4" r:id="rId1"/>
     <sheet name="key" sheetId="3" r:id="rId2"/>
     <sheet name="Light" sheetId="1" r:id="rId3"/>
     <sheet name="Remote Tim" sheetId="2" r:id="rId4"/>
     <sheet name="remote hex" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="B1:R14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>1 us  calcute</t>
   </si>
@@ -97,33 +93,6 @@
     <t>light2 dec</t>
   </si>
   <si>
-    <t>uint32_t mLight1Perc;</t>
-  </si>
-  <si>
-    <t>uint32_t mLight2Perc;</t>
-  </si>
-  <si>
-    <t>uint32_t mMin;</t>
-  </si>
-  <si>
-    <t>uint32_t mMax;</t>
-  </si>
-  <si>
-    <t>uint32_t mStep;</t>
-  </si>
-  <si>
-    <t>uint32_t mIsOn;</t>
-  </si>
-  <si>
-    <t>uint32_t mMode;</t>
-  </si>
-  <si>
-    <t>uint32_t mCurUser;</t>
-  </si>
-  <si>
-    <t>TOTAL FRAM REQ</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
@@ -172,9 +141,6 @@
     <t>31</t>
   </si>
   <si>
-    <t>USER DATA CNT</t>
-  </si>
-  <si>
     <t>t up</t>
   </si>
   <si>
@@ -215,6 +181,27 @@
   </si>
   <si>
     <t>mcu pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED </t>
+  </si>
+  <si>
+    <t>SWITCH</t>
+  </si>
+  <si>
+    <t>DIGITAL OUT</t>
+  </si>
+  <si>
+    <t>ANALOG 0-4</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>BASIC UART TEST</t>
+  </si>
+  <si>
+    <t>MODBUS</t>
   </si>
 </sst>
 </file>
@@ -379,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,9 +411,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -783,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15B23F8-B338-4788-8888-34FC64A43006}">
-  <dimension ref="E5:T30"/>
+  <dimension ref="E3:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,299 +783,133 @@
     <col min="14" max="14" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E5" s="18">
+    <row r="3" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="17">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="17">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="17">
         <v>4</v>
       </c>
-      <c r="J5" s="18">
-        <v>11</v>
-      </c>
-      <c r="K5" s="18">
-        <f>(G5+J5)-1</f>
-        <v>14</v>
-      </c>
-      <c r="M5" s="18">
-        <v>4</v>
-      </c>
-      <c r="O5" s="18">
-        <v>11</v>
-      </c>
-      <c r="P5" s="18">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>13</v>
-      </c>
-      <c r="R5" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E6" s="18">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="10">
-        <v>4</v>
-      </c>
-      <c r="J6" s="18">
-        <f>K5+1</f>
-        <v>15</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" ref="K6:K9" si="0">(G6+J6)-1</f>
-        <v>18</v>
-      </c>
-      <c r="M6" s="18">
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="17">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="17">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="17">
         <v>8</v>
       </c>
-      <c r="O6" s="18">
-        <v>15</v>
-      </c>
-      <c r="P6" s="18">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>17</v>
-      </c>
-      <c r="R6" s="18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E7" s="18">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="10">
-        <v>4</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" ref="J7:J9" si="1">K6+1</f>
-        <v>19</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="M7" s="18">
-        <v>12</v>
-      </c>
-      <c r="O7" s="18">
-        <v>19</v>
-      </c>
-      <c r="P7" s="18">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>21</v>
-      </c>
-      <c r="R7" s="18">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="18">
-        <v>4</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="10">
-        <v>4</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="M8" s="18">
-        <v>16</v>
-      </c>
-      <c r="O8" s="18">
-        <v>23</v>
-      </c>
-      <c r="P8" s="18">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>25</v>
-      </c>
-      <c r="R8" s="18">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="18">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="10">
-        <v>4</v>
-      </c>
-      <c r="J9" s="18">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="M9" s="18">
-        <v>20</v>
-      </c>
-      <c r="O9" s="18">
-        <v>27</v>
-      </c>
-      <c r="P9" s="18">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>29</v>
-      </c>
-      <c r="R9" s="18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="18"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="14">
-        <f>SUM(G5:G9)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="G13">
-        <f>G10*G12</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="18">
-        <v>2</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="E17" s="18">
-        <v>3</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="E18" s="18"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="E19" s="18"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="14">
-        <f>SUM(G15:G17)</f>
-        <v>12</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="Q20">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="21" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="Q21">
-        <f>Q19*Q20</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="22" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22">
-        <f>G19+G13</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="T23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="T25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="T26">
-        <f>T25*365</f>
-        <v>730</v>
-      </c>
-    </row>
-    <row r="27" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="T27">
-        <f>T26*24</f>
-        <v>17520</v>
-      </c>
-    </row>
-    <row r="28" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="T28">
-        <f>T27*60</f>
-        <v>1051200</v>
-      </c>
-    </row>
-    <row r="30" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="T30">
-        <f>T28/10</f>
-        <v>105120</v>
-      </c>
+    </row>
+    <row r="12" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="17"/>
+    </row>
+    <row r="21" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="17"/>
+    </row>
+    <row r="30" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1167,11 +985,11 @@
     <row r="14" spans="5:20" x14ac:dyDescent="0.25">
       <c r="K14" s="10"/>
       <c r="L14" s="10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="O14" s="10"/>
     </row>
@@ -1194,11 +1012,11 @@
     <row r="16" spans="5:20" x14ac:dyDescent="0.25">
       <c r="K16" s="10"/>
       <c r="L16" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="O16" s="10"/>
       <c r="R16">
@@ -1215,11 +1033,11 @@
     <row r="17" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K17" s="10"/>
       <c r="L17" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="O17" s="10"/>
       <c r="R17">
@@ -1229,11 +1047,11 @@
     <row r="18" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K18" s="10"/>
       <c r="L18" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="O18" s="10"/>
       <c r="R18">
@@ -1249,11 +1067,11 @@
     <row r="19" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K19" s="10"/>
       <c r="L19" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M19" s="10"/>
       <c r="N19" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O19" s="10"/>
       <c r="R19">
@@ -1272,22 +1090,22 @@
     <row r="20" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" s="10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="O21" s="10"/>
       <c r="S21">
@@ -1330,7 +1148,7 @@
   <dimension ref="D4:H985"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1157,7 @@
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
@@ -1370,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="15">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="10"/>
@@ -1380,7 +1198,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f>E6*1000000</f>
-        <v>48000000</v>
+        <v>64000000</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="10"/>
@@ -1391,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="16">
-        <v>1600</v>
+        <v>64</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="10"/>
@@ -1410,7 +1228,7 @@
       </c>
       <c r="E10" s="1">
         <f>E7/E8</f>
-        <v>30000</v>
+        <v>1000000</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
@@ -1432,7 +1250,7 @@
       </c>
       <c r="F12" s="9">
         <f>(E12+1)/E10</f>
-        <v>6.666666666666667E-5</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1442,15 +1260,16 @@
         <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>200</v>
+        <f>999+1</f>
+        <v>1000</v>
       </c>
       <c r="F13" s="9">
         <f>(E13+1)/E10</f>
-        <v>6.7000000000000002E-3</v>
+        <v>1.0009999999999999E-3</v>
       </c>
       <c r="G13" s="13">
         <f>E10/E13</f>
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>10</v>
@@ -1465,7 +1284,7 @@
       </c>
       <c r="F14" s="9">
         <f>(E14+1)/E10</f>
-        <v>3.6666666666666667E-4</v>
+        <v>1.1E-5</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1479,7 +1298,7 @@
       </c>
       <c r="F15" s="9">
         <f>(E15+1)/E10</f>
-        <v>6.3666666666666663E-3</v>
+        <v>1.9100000000000001E-4</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -2464,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B9321E-0F89-4257-8D80-A27D23B097B6}">
   <dimension ref="D3:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,22 +2296,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
@@ -2663,48 +2482,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="21" t="str">
+      <c r="B4" s="18"/>
+      <c r="C4" s="20" t="str">
         <f>_xlfn.CONCAT("0x",C3)</f>
         <v>0x37</v>
       </c>
-      <c r="D4" s="21" t="str">
+      <c r="D4" s="20" t="str">
         <f>_xlfn.CONCAT("0x",D3)</f>
         <v>0x44</v>
       </c>
-      <c r="E4" s="21" t="str">
+      <c r="E4" s="20" t="str">
         <f>_xlfn.CONCAT("0x",E3)</f>
         <v>0x38</v>
       </c>
-      <c r="F4" s="21" t="str">
+      <c r="F4" s="20" t="str">
         <f>_xlfn.CONCAT("0x",F3)</f>
         <v>0x32</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="str">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18" t="str">
         <f>_xlfn.CONCAT("(",
 "gDecToHex[0]==",TEXT(C4,0)," &amp;&amp; ",
 "gDecToHex[1]==",TEXT(D4,0)," &amp;&amp; ",
@@ -2714,59 +2533,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>2</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21" t="str">
+      <c r="B7" s="18"/>
+      <c r="C7" s="20" t="str">
         <f>_xlfn.CONCAT("0x",C6)</f>
         <v>0x37</v>
       </c>
-      <c r="D7" s="21" t="str">
+      <c r="D7" s="20" t="str">
         <f>_xlfn.CONCAT("0x",D6)</f>
         <v>0x35</v>
       </c>
-      <c r="E7" s="21" t="str">
+      <c r="E7" s="20" t="str">
         <f>_xlfn.CONCAT("0x",E6)</f>
         <v>0x38</v>
       </c>
-      <c r="F7" s="21" t="str">
+      <c r="F7" s="20" t="str">
         <f>_xlfn.CONCAT("0x",F6)</f>
         <v>0x41</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19" t="str">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="str">
         <f>_xlfn.CONCAT("(",
 "gDecToHex[0]==",TEXT(C7,0)," &amp;&amp; ",
 "gDecToHex[1]==",TEXT(D7,0)," &amp;&amp; ",
@@ -2776,59 +2595,59 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>3</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="21" t="str">
+      <c r="B10" s="18"/>
+      <c r="C10" s="20" t="str">
         <f>_xlfn.CONCAT("0x",C9)</f>
         <v>0x37</v>
       </c>
-      <c r="D10" s="21" t="str">
+      <c r="D10" s="20" t="str">
         <f>_xlfn.CONCAT("0x",D9)</f>
         <v>0x39</v>
       </c>
-      <c r="E10" s="21" t="str">
+      <c r="E10" s="20" t="str">
         <f>_xlfn.CONCAT("0x",E9)</f>
         <v>0x38</v>
       </c>
-      <c r="F10" s="21" t="str">
+      <c r="F10" s="20" t="str">
         <f>_xlfn.CONCAT("0x",F9)</f>
         <v>0x36</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19" t="str">
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18" t="str">
         <f>_xlfn.CONCAT("(",
 "gDecToHex[0]==",TEXT(C10,0)," &amp;&amp; ",
 "gDecToHex[1]==",TEXT(D10,0)," &amp;&amp; ",
@@ -2838,48 +2657,48 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="24" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="F12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>4</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="25" t="str">
+      <c r="B13" s="22"/>
+      <c r="C13" s="24" t="str">
         <f>_xlfn.CONCAT("0x",C12)</f>
         <v>0x46</v>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="24" t="str">
         <f>_xlfn.CONCAT("0x",D12)</f>
         <v>0x38</v>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="24" t="str">
         <f>_xlfn.CONCAT("0x",E12)</f>
         <v>0x30</v>
       </c>
-      <c r="F13" s="25" t="str">
+      <c r="F13" s="24" t="str">
         <f>_xlfn.CONCAT("0x",F12)</f>
         <v>0x37</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23" t="str">
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22" t="str">
         <f>_xlfn.CONCAT("(",
 "gDecToHex[0]==",TEXT(C13,0)," &amp;&amp; ",
 "gDecToHex[1]==",TEXT(D13,0)," &amp;&amp; ",
@@ -2889,59 +2708,59 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>5</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="25" t="str">
+      <c r="B16" s="22"/>
+      <c r="C16" s="24" t="str">
         <f>_xlfn.CONCAT("0x",C15)</f>
         <v>0x46</v>
       </c>
-      <c r="D16" s="25" t="str">
+      <c r="D16" s="24" t="str">
         <f>_xlfn.CONCAT("0x",D15)</f>
         <v>0x34</v>
       </c>
-      <c r="E16" s="25" t="str">
+      <c r="E16" s="24" t="str">
         <f>_xlfn.CONCAT("0x",E15)</f>
         <v>0x30</v>
       </c>
-      <c r="F16" s="25" t="str">
+      <c r="F16" s="24" t="str">
         <f>_xlfn.CONCAT("0x",F15)</f>
         <v>0x42</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23" t="str">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22" t="str">
         <f>_xlfn.CONCAT("(",
 "gDecToHex[0]==",TEXT(C16,0)," &amp;&amp; ",
 "gDecToHex[1]==",TEXT(D16,0)," &amp;&amp; ",
@@ -2951,59 +2770,59 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>6</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="25" t="str">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24" t="str">
         <f>_xlfn.CONCAT("0x",C18)</f>
         <v>0x46</v>
       </c>
-      <c r="D19" s="25" t="str">
+      <c r="D19" s="24" t="str">
         <f>_xlfn.CONCAT("0x",D18)</f>
         <v>0x43</v>
       </c>
-      <c r="E19" s="25" t="str">
+      <c r="E19" s="24" t="str">
         <f>_xlfn.CONCAT("0x",E18)</f>
         <v>0x30</v>
       </c>
-      <c r="F19" s="25" t="str">
+      <c r="F19" s="24" t="str">
         <f>_xlfn.CONCAT("0x",F18)</f>
         <v>0x33</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23" t="str">
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22" t="str">
         <f>_xlfn.CONCAT("(",
 "gDecToHex[0]==",TEXT(C19,0)," &amp;&amp; ",
 "gDecToHex[1]==",TEXT(D19,0)," &amp;&amp; ",
@@ -3013,48 +2832,48 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>7</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="29" t="str">
+      <c r="B22" s="26"/>
+      <c r="C22" s="28" t="str">
         <f>_xlfn.CONCAT("0x",C21)</f>
         <v>0x46</v>
       </c>
-      <c r="D22" s="29" t="str">
+      <c r="D22" s="28" t="str">
         <f>_xlfn.CONCAT("0x",D21)</f>
         <v>0x41</v>
       </c>
-      <c r="E22" s="29" t="str">
+      <c r="E22" s="28" t="str">
         <f>_xlfn.CONCAT("0x",E21)</f>
         <v>0x30</v>
       </c>
-      <c r="F22" s="29" t="str">
+      <c r="F22" s="28" t="str">
         <f>_xlfn.CONCAT("0x",F21)</f>
         <v>0x35</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27" t="str">
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26" t="str">
         <f>_xlfn.CONCAT("(",
 "gDecToHex[0]==",TEXT(C22,0)," &amp;&amp; ",
 "gDecToHex[1]==",TEXT(D22,0)," &amp;&amp; ",
@@ -3064,59 +2883,59 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="26">
         <v>8</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="29" t="str">
+      <c r="B25" s="26"/>
+      <c r="C25" s="28" t="str">
         <f>_xlfn.CONCAT("0x",C24)</f>
         <v>0x46</v>
       </c>
-      <c r="D25" s="29" t="str">
+      <c r="D25" s="28" t="str">
         <f>_xlfn.CONCAT("0x",D24)</f>
         <v>0x36</v>
       </c>
-      <c r="E25" s="29" t="str">
+      <c r="E25" s="28" t="str">
         <f>_xlfn.CONCAT("0x",E24)</f>
         <v>0x30</v>
       </c>
-      <c r="F25" s="29" t="str">
+      <c r="F25" s="28" t="str">
         <f>_xlfn.CONCAT("0x",F24)</f>
         <v>0x39</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27" t="str">
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26" t="str">
         <f>_xlfn.CONCAT("(",
 "gDecToHex[0]==",TEXT(C25,0)," &amp;&amp; ",
 "gDecToHex[1]==",TEXT(D25,0)," &amp;&amp; ",
@@ -3126,59 +2945,59 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
+      <c r="A28" s="26">
         <v>9</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="29" t="str">
+      <c r="B28" s="26"/>
+      <c r="C28" s="28" t="str">
         <f>_xlfn.CONCAT("0x",C27)</f>
         <v>0x46</v>
       </c>
-      <c r="D28" s="29" t="str">
+      <c r="D28" s="28" t="str">
         <f>_xlfn.CONCAT("0x",D27)</f>
         <v>0x45</v>
       </c>
-      <c r="E28" s="29" t="str">
+      <c r="E28" s="28" t="str">
         <f>_xlfn.CONCAT("0x",E27)</f>
         <v>0x30</v>
       </c>
-      <c r="F28" s="29" t="str">
+      <c r="F28" s="28" t="str">
         <f>_xlfn.CONCAT("0x",F27)</f>
         <v>0x31</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27" t="str">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26" t="str">
         <f>_xlfn.CONCAT("(",
 "gDecToHex[0]==",TEXT(C28,0)," &amp;&amp; ",
 "gDecToHex[1]==",TEXT(D28,0)," &amp;&amp; ",
@@ -3188,48 +3007,48 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>10</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="21" t="str">
+      <c r="B31" s="18"/>
+      <c r="C31" s="20" t="str">
         <f>_xlfn.CONCAT("0x",C30)</f>
         <v>0x46</v>
       </c>
-      <c r="D31" s="21" t="str">
+      <c r="D31" s="20" t="str">
         <f>_xlfn.CONCAT("0x",D30)</f>
         <v>0x39</v>
       </c>
-      <c r="E31" s="21" t="str">
+      <c r="E31" s="20" t="str">
         <f>_xlfn.CONCAT("0x",E30)</f>
         <v>0x30</v>
       </c>
-      <c r="F31" s="21" t="str">
+      <c r="F31" s="20" t="str">
         <f>_xlfn.CONCAT("0x",F30)</f>
         <v>0x36</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19" t="str">
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18" t="str">
         <f>_xlfn.CONCAT("(",
 "gDecToHex[0]==",TEXT(C31,0)," &amp;&amp; ",
 "gDecToHex[1]==",TEXT(D31,0)," &amp;&amp; ",
@@ -3239,59 +3058,59 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="18">
         <v>11</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="21" t="str">
+      <c r="B34" s="18"/>
+      <c r="C34" s="20" t="str">
         <f>_xlfn.CONCAT("0x",C33)</f>
         <v>0x46</v>
       </c>
-      <c r="D34" s="21" t="str">
+      <c r="D34" s="20" t="str">
         <f>_xlfn.CONCAT("0x",D33)</f>
         <v>0x35</v>
       </c>
-      <c r="E34" s="21" t="str">
+      <c r="E34" s="20" t="str">
         <f>_xlfn.CONCAT("0x",E33)</f>
         <v>0x30</v>
       </c>
-      <c r="F34" s="21" t="str">
+      <c r="F34" s="20" t="str">
         <f>_xlfn.CONCAT("0x",F33)</f>
         <v>0x41</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19" t="str">
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18" t="str">
         <f>_xlfn.CONCAT("(",
 "gDecToHex[0]==",TEXT(C34,0)," &amp;&amp; ",
 "gDecToHex[1]==",TEXT(D34,0)," &amp;&amp; ",
@@ -3301,59 +3120,59 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>12</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="21" t="str">
+      <c r="B37" s="18"/>
+      <c r="C37" s="20" t="str">
         <f>_xlfn.CONCAT("0x",C36)</f>
         <v>0x46</v>
       </c>
-      <c r="D37" s="21" t="str">
+      <c r="D37" s="20" t="str">
         <f>_xlfn.CONCAT("0x",D36)</f>
         <v>0x44</v>
       </c>
-      <c r="E37" s="21" t="str">
+      <c r="E37" s="20" t="str">
         <f>_xlfn.CONCAT("0x",E36)</f>
         <v>0x30</v>
       </c>
-      <c r="F37" s="21" t="str">
+      <c r="F37" s="20" t="str">
         <f>_xlfn.CONCAT("0x",F36)</f>
         <v>0x32</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19" t="str">
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18" t="str">
         <f>_xlfn.CONCAT("(",
 "gDecToHex[0]==",TEXT(C37,0)," &amp;&amp; ",
 "gDecToHex[1]==",TEXT(D37,0)," &amp;&amp; ",

--- a/Doc/Tim.xlsx
+++ b/Doc/Tim.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AB551DCD-0E30-473C-8A6B-E6A49F8EBE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" tabRatio="779" xr2:uid="{3BBC16BF-3852-4B14-B8FB-5FFEF6517710}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20730" windowHeight="11760" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Test" sheetId="4" r:id="rId1"/>
@@ -14,10 +13,9 @@
     <sheet name="Remote Tim" sheetId="2" r:id="rId4"/>
     <sheet name="remote hex" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <oleSize ref="B1:R14"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -207,8 +205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,7 +511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -565,7 +563,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -759,21 +757,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15B23F8-B338-4788-8888-34FC64A43006}">
-  <dimension ref="E3:T30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="9.140625" style="17"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -783,7 +781,7 @@
     <col min="14" max="14" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:7">
       <c r="E3" s="17">
         <v>1</v>
       </c>
@@ -794,7 +792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:7">
       <c r="E4" s="17">
         <v>2</v>
       </c>
@@ -805,7 +803,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:7">
       <c r="E5" s="17">
         <v>3</v>
       </c>
@@ -816,7 +814,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:7">
       <c r="E6" s="17">
         <v>4</v>
       </c>
@@ -827,10 +825,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:7">
       <c r="E8" s="17">
         <v>5</v>
       </c>
@@ -838,12 +833,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:7">
       <c r="E9" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:7">
       <c r="E10" s="17">
         <v>7</v>
       </c>
@@ -851,65 +846,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:7">
       <c r="E11" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:7">
       <c r="E12" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:7">
       <c r="E13" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="17"/>
-    </row>
-    <row r="21" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="17"/>
-    </row>
-    <row r="30" spans="5:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -918,16 +868,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCDF2-DA78-4107-B409-FA49F017D368}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E5:T24"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:20">
       <c r="E5">
         <v>15</v>
       </c>
@@ -935,7 +885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:20">
       <c r="E6">
         <v>14</v>
       </c>
@@ -943,7 +893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:20">
       <c r="E7">
         <v>11</v>
       </c>
@@ -951,7 +901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:20">
       <c r="E8">
         <v>10</v>
       </c>
@@ -959,7 +909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:20">
       <c r="E9">
         <v>12</v>
       </c>
@@ -967,7 +917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:20">
       <c r="E10">
         <v>13</v>
       </c>
@@ -975,14 +925,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:20">
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:20">
       <c r="K14" s="10"/>
       <c r="L14" s="10" t="s">
         <v>48</v>
@@ -993,7 +943,7 @@
       </c>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:20">
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -1009,7 +959,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:20">
       <c r="K16" s="10"/>
       <c r="L16" s="10" t="s">
         <v>36</v>
@@ -1030,7 +980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:20">
       <c r="K17" s="10"/>
       <c r="L17" s="10" t="s">
         <v>39</v>
@@ -1044,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:20">
       <c r="K18" s="10"/>
       <c r="L18" s="10" t="s">
         <v>40</v>
@@ -1064,7 +1014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:20">
       <c r="K19" s="10"/>
       <c r="L19" s="10" t="s">
         <v>41</v>
@@ -1087,7 +1037,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="20" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:20">
       <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
         <v>38</v>
@@ -1098,7 +1048,7 @@
       </c>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:20">
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
         <v>37</v>
@@ -1113,7 +1063,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="22" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:20">
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -1124,14 +1074,14 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="23" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:20">
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:20">
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -1144,14 +1094,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0CE522-F16C-400F-9472-926A94AE437C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D4:H985"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
@@ -1165,7 +1115,7 @@
     <col min="14" max="16" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:8">
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -1176,14 +1126,14 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:8">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="8"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:8" ht="15.75" customHeight="1">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1194,7 +1144,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:8" ht="15.75" customHeight="1">
       <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f>E6*1000000</f>
@@ -1204,7 +1154,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:8" ht="15.75" customHeight="1">
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1215,14 +1165,14 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:8" ht="15.75" customHeight="1">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="8"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:8" ht="15.75" customHeight="1">
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1234,14 +1184,14 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:8" ht="15.75" customHeight="1">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:8" ht="15.75" customHeight="1">
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1255,7 +1205,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:8" ht="15.75" customHeight="1">
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1275,7 +1225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:8" ht="15.75" customHeight="1">
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1239,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:8" ht="15.75" customHeight="1">
       <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1303,976 +1253,976 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="4:8" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2280,14 +2230,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B9321E-0F89-4257-8D80-A27D23B097B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
@@ -2295,7 +2245,7 @@
     <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:10">
       <c r="D3" s="30" t="s">
         <v>13</v>
       </c>
@@ -2303,7 +2253,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:10">
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2313,7 +2263,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:10">
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
         <v>0</v>
@@ -2321,85 +2271,85 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:10">
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:10">
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:10">
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4">
         <f>F7*1000000</f>
-        <v>48000000</v>
+        <v>32000000</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:10">
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="5">
-        <v>12000</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:10">
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:10">
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="4">
         <f>F8/F9</f>
-        <v>4000</v>
+        <v>1032258.0645161291</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:10">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:10">
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="G13" s="1">
         <f>(F13+1)/F11</f>
-        <v>5.0000000000000001E-4</v>
+        <v>9.6874999999999999E-4</v>
       </c>
       <c r="I13" s="12">
         <f t="shared" ref="I13:I16" si="0">G13*1000</f>
-        <v>0.5</v>
+        <v>0.96875</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:10">
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
         <v>5</v>
@@ -2409,17 +2359,17 @@
       </c>
       <c r="G14" s="1">
         <f>(F14+1)/F11</f>
-        <v>8.9999999999999993E-3</v>
+        <v>3.4875000000000001E-5</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3.4875000000000003E-2</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:10">
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -2429,17 +2379,17 @@
       </c>
       <c r="G15" s="1">
         <f>(F15+1)/F11</f>
-        <v>7.5000000000000002E-4</v>
+        <v>2.9062499999999999E-6</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>2.90625E-3</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:10">
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
         <v>7</v>
@@ -2449,11 +2399,11 @@
       </c>
       <c r="G16" s="1">
         <f>(F16+1)/F11</f>
-        <v>5.0000000000000001E-4</v>
+        <v>1.9375000000000001E-6</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.9375E-3</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>6</v>
@@ -2469,19 +2419,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF64D2F7-42DC-408D-85F5-56A0DE0FE0D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:I37"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="89.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
@@ -2500,7 +2450,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -2524,15 +2474,11 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18" t="str">
-        <f>_xlfn.CONCAT("(",
-"gDecToHex[0]==",TEXT(C4,0)," &amp;&amp; ",
-"gDecToHex[1]==",TEXT(D4,0)," &amp;&amp; ",
-"gDecToHex[2]==",TEXT(E4,0)," &amp;&amp; ",
-"gDecToHex[3]==",TEXT(F4,0),")" )</f>
+        <f>_xlfn.CONCAT("(","gDecToHex[0]==",TEXT(C4,0)," &amp;&amp; ","gDecToHex[1]==",TEXT(D4,0)," &amp;&amp; ","gDecToHex[2]==",TEXT(E4,0)," &amp;&amp; ","gDecToHex[3]==",TEXT(F4,0),")" )</f>
         <v>(gDecToHex[0]==0x37 &amp;&amp; gDecToHex[1]==0x44 &amp;&amp; gDecToHex[2]==0x38 &amp;&amp; gDecToHex[3]==0x32)</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -2543,7 +2489,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
@@ -2562,7 +2508,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="18">
         <v>2</v>
       </c>
@@ -2586,15 +2532,11 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18" t="str">
-        <f>_xlfn.CONCAT("(",
-"gDecToHex[0]==",TEXT(C7,0)," &amp;&amp; ",
-"gDecToHex[1]==",TEXT(D7,0)," &amp;&amp; ",
-"gDecToHex[2]==",TEXT(E7,0)," &amp;&amp; ",
-"gDecToHex[3]==",TEXT(F7,0),")" )</f>
+        <f>_xlfn.CONCAT("(","gDecToHex[0]==",TEXT(C7,0)," &amp;&amp; ","gDecToHex[1]==",TEXT(D7,0)," &amp;&amp; ","gDecToHex[2]==",TEXT(E7,0)," &amp;&amp; ","gDecToHex[3]==",TEXT(F7,0),")" )</f>
         <v>(gDecToHex[0]==0x37 &amp;&amp; gDecToHex[1]==0x35 &amp;&amp; gDecToHex[2]==0x38 &amp;&amp; gDecToHex[3]==0x41)</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -2605,7 +2547,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19" t="s">
@@ -2624,7 +2566,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="18">
         <v>3</v>
       </c>
@@ -2648,15 +2590,11 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="str">
-        <f>_xlfn.CONCAT("(",
-"gDecToHex[0]==",TEXT(C10,0)," &amp;&amp; ",
-"gDecToHex[1]==",TEXT(D10,0)," &amp;&amp; ",
-"gDecToHex[2]==",TEXT(E10,0)," &amp;&amp; ",
-"gDecToHex[3]==",TEXT(F10,0),")" )</f>
+        <f>_xlfn.CONCAT("(","gDecToHex[0]==",TEXT(C10,0)," &amp;&amp; ","gDecToHex[1]==",TEXT(D10,0)," &amp;&amp; ","gDecToHex[2]==",TEXT(E10,0)," &amp;&amp; ","gDecToHex[3]==",TEXT(F10,0),")" )</f>
         <v>(gDecToHex[0]==0x37 &amp;&amp; gDecToHex[1]==0x39 &amp;&amp; gDecToHex[2]==0x38 &amp;&amp; gDecToHex[3]==0x36)</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
@@ -2675,7 +2613,7 @@
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -2699,15 +2637,11 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22" t="str">
-        <f>_xlfn.CONCAT("(",
-"gDecToHex[0]==",TEXT(C13,0)," &amp;&amp; ",
-"gDecToHex[1]==",TEXT(D13,0)," &amp;&amp; ",
-"gDecToHex[2]==",TEXT(E13,0)," &amp;&amp; ",
-"gDecToHex[3]==",TEXT(F13,0),")" )</f>
+        <f>_xlfn.CONCAT("(","gDecToHex[0]==",TEXT(C13,0)," &amp;&amp; ","gDecToHex[1]==",TEXT(D13,0)," &amp;&amp; ","gDecToHex[2]==",TEXT(E13,0)," &amp;&amp; ","gDecToHex[3]==",TEXT(F13,0),")" )</f>
         <v>(gDecToHex[0]==0x46 &amp;&amp; gDecToHex[1]==0x38 &amp;&amp; gDecToHex[2]==0x30 &amp;&amp; gDecToHex[3]==0x37)</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="24"/>
@@ -2718,7 +2652,7 @@
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="23" t="s">
@@ -2737,7 +2671,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="22">
         <v>5</v>
       </c>
@@ -2761,15 +2695,11 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22" t="str">
-        <f>_xlfn.CONCAT("(",
-"gDecToHex[0]==",TEXT(C16,0)," &amp;&amp; ",
-"gDecToHex[1]==",TEXT(D16,0)," &amp;&amp; ",
-"gDecToHex[2]==",TEXT(E16,0)," &amp;&amp; ",
-"gDecToHex[3]==",TEXT(F16,0),")" )</f>
+        <f>_xlfn.CONCAT("(","gDecToHex[0]==",TEXT(C16,0)," &amp;&amp; ","gDecToHex[1]==",TEXT(D16,0)," &amp;&amp; ","gDecToHex[2]==",TEXT(E16,0)," &amp;&amp; ","gDecToHex[3]==",TEXT(F16,0),")" )</f>
         <v>(gDecToHex[0]==0x46 &amp;&amp; gDecToHex[1]==0x34 &amp;&amp; gDecToHex[2]==0x30 &amp;&amp; gDecToHex[3]==0x42)</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -2780,7 +2710,7 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23" t="s">
@@ -2799,7 +2729,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="22">
         <v>6</v>
       </c>
@@ -2823,15 +2753,11 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22" t="str">
-        <f>_xlfn.CONCAT("(",
-"gDecToHex[0]==",TEXT(C19,0)," &amp;&amp; ",
-"gDecToHex[1]==",TEXT(D19,0)," &amp;&amp; ",
-"gDecToHex[2]==",TEXT(E19,0)," &amp;&amp; ",
-"gDecToHex[3]==",TEXT(F19,0),")" )</f>
+        <f>_xlfn.CONCAT("(","gDecToHex[0]==",TEXT(C19,0)," &amp;&amp; ","gDecToHex[1]==",TEXT(D19,0)," &amp;&amp; ","gDecToHex[2]==",TEXT(E19,0)," &amp;&amp; ","gDecToHex[3]==",TEXT(F19,0),")" )</f>
         <v>(gDecToHex[0]==0x46 &amp;&amp; gDecToHex[1]==0x43 &amp;&amp; gDecToHex[2]==0x30 &amp;&amp; gDecToHex[3]==0x33)</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
@@ -2850,7 +2776,7 @@
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="26">
         <v>7</v>
       </c>
@@ -2874,15 +2800,11 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26" t="str">
-        <f>_xlfn.CONCAT("(",
-"gDecToHex[0]==",TEXT(C22,0)," &amp;&amp; ",
-"gDecToHex[1]==",TEXT(D22,0)," &amp;&amp; ",
-"gDecToHex[2]==",TEXT(E22,0)," &amp;&amp; ",
-"gDecToHex[3]==",TEXT(F22,0),")" )</f>
+        <f>_xlfn.CONCAT("(","gDecToHex[0]==",TEXT(C22,0)," &amp;&amp; ","gDecToHex[1]==",TEXT(D22,0)," &amp;&amp; ","gDecToHex[2]==",TEXT(E22,0)," &amp;&amp; ","gDecToHex[3]==",TEXT(F22,0),")" )</f>
         <v>(gDecToHex[0]==0x46 &amp;&amp; gDecToHex[1]==0x41 &amp;&amp; gDecToHex[2]==0x30 &amp;&amp; gDecToHex[3]==0x35)</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -2893,7 +2815,7 @@
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27" t="s">
@@ -2912,7 +2834,7 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="26">
         <v>8</v>
       </c>
@@ -2936,15 +2858,11 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26" t="str">
-        <f>_xlfn.CONCAT("(",
-"gDecToHex[0]==",TEXT(C25,0)," &amp;&amp; ",
-"gDecToHex[1]==",TEXT(D25,0)," &amp;&amp; ",
-"gDecToHex[2]==",TEXT(E25,0)," &amp;&amp; ",
-"gDecToHex[3]==",TEXT(F25,0),")" )</f>
+        <f>_xlfn.CONCAT("(","gDecToHex[0]==",TEXT(C25,0)," &amp;&amp; ","gDecToHex[1]==",TEXT(D25,0)," &amp;&amp; ","gDecToHex[2]==",TEXT(E25,0)," &amp;&amp; ","gDecToHex[3]==",TEXT(F25,0),")" )</f>
         <v>(gDecToHex[0]==0x46 &amp;&amp; gDecToHex[1]==0x36 &amp;&amp; gDecToHex[2]==0x30 &amp;&amp; gDecToHex[3]==0x39)</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -2955,7 +2873,7 @@
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27" t="s">
@@ -2974,7 +2892,7 @@
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="26">
         <v>9</v>
       </c>
@@ -2998,15 +2916,11 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26" t="str">
-        <f>_xlfn.CONCAT("(",
-"gDecToHex[0]==",TEXT(C28,0)," &amp;&amp; ",
-"gDecToHex[1]==",TEXT(D28,0)," &amp;&amp; ",
-"gDecToHex[2]==",TEXT(E28,0)," &amp;&amp; ",
-"gDecToHex[3]==",TEXT(F28,0),")" )</f>
+        <f>_xlfn.CONCAT("(","gDecToHex[0]==",TEXT(C28,0)," &amp;&amp; ","gDecToHex[1]==",TEXT(D28,0)," &amp;&amp; ","gDecToHex[2]==",TEXT(E28,0)," &amp;&amp; ","gDecToHex[3]==",TEXT(F28,0),")" )</f>
         <v>(gDecToHex[0]==0x46 &amp;&amp; gDecToHex[1]==0x45 &amp;&amp; gDecToHex[2]==0x30 &amp;&amp; gDecToHex[3]==0x31)</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
@@ -3025,7 +2939,7 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="18">
         <v>10</v>
       </c>
@@ -3049,15 +2963,11 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18" t="str">
-        <f>_xlfn.CONCAT("(",
-"gDecToHex[0]==",TEXT(C31,0)," &amp;&amp; ",
-"gDecToHex[1]==",TEXT(D31,0)," &amp;&amp; ",
-"gDecToHex[2]==",TEXT(E31,0)," &amp;&amp; ",
-"gDecToHex[3]==",TEXT(F31,0),")" )</f>
+        <f>_xlfn.CONCAT("(","gDecToHex[0]==",TEXT(C31,0)," &amp;&amp; ","gDecToHex[1]==",TEXT(D31,0)," &amp;&amp; ","gDecToHex[2]==",TEXT(E31,0)," &amp;&amp; ","gDecToHex[3]==",TEXT(F31,0),")" )</f>
         <v>(gDecToHex[0]==0x46 &amp;&amp; gDecToHex[1]==0x39 &amp;&amp; gDecToHex[2]==0x30 &amp;&amp; gDecToHex[3]==0x36)</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -3068,7 +2978,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19" t="s">
@@ -3087,7 +2997,7 @@
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="18">
         <v>11</v>
       </c>
@@ -3111,15 +3021,11 @@
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18" t="str">
-        <f>_xlfn.CONCAT("(",
-"gDecToHex[0]==",TEXT(C34,0)," &amp;&amp; ",
-"gDecToHex[1]==",TEXT(D34,0)," &amp;&amp; ",
-"gDecToHex[2]==",TEXT(E34,0)," &amp;&amp; ",
-"gDecToHex[3]==",TEXT(F34,0),")" )</f>
+        <f>_xlfn.CONCAT("(","gDecToHex[0]==",TEXT(C34,0)," &amp;&amp; ","gDecToHex[1]==",TEXT(D34,0)," &amp;&amp; ","gDecToHex[2]==",TEXT(E34,0)," &amp;&amp; ","gDecToHex[3]==",TEXT(F34,0),")" )</f>
         <v>(gDecToHex[0]==0x46 &amp;&amp; gDecToHex[1]==0x35 &amp;&amp; gDecToHex[2]==0x30 &amp;&amp; gDecToHex[3]==0x41)</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3130,7 +3036,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19" t="s">
@@ -3149,7 +3055,7 @@
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="18">
         <v>12</v>
       </c>
@@ -3173,11 +3079,7 @@
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18" t="str">
-        <f>_xlfn.CONCAT("(",
-"gDecToHex[0]==",TEXT(C37,0)," &amp;&amp; ",
-"gDecToHex[1]==",TEXT(D37,0)," &amp;&amp; ",
-"gDecToHex[2]==",TEXT(E37,0)," &amp;&amp; ",
-"gDecToHex[3]==",TEXT(F37,0),")" )</f>
+        <f>_xlfn.CONCAT("(","gDecToHex[0]==",TEXT(C37,0)," &amp;&amp; ","gDecToHex[1]==",TEXT(D37,0)," &amp;&amp; ","gDecToHex[2]==",TEXT(E37,0)," &amp;&amp; ","gDecToHex[3]==",TEXT(F37,0),")" )</f>
         <v>(gDecToHex[0]==0x46 &amp;&amp; gDecToHex[1]==0x44 &amp;&amp; gDecToHex[2]==0x30 &amp;&amp; gDecToHex[3]==0x32)</v>
       </c>
     </row>
